--- a/dist/打开此工作簿73列.xlsx
+++ b/dist/打开此工作簿73列.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tylorgan\OneDrive\GitHub\Tencent\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_436094B83F6BD10CF29A1D637F18EDE8E7C65E6E" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E17657A5-BA6A-4151-ADF3-020D543A096C}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_436094B83F6BD10CF29A1D637F18EDE8E7C65E6E" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6E6D7707-9578-4437-897C-A871BFF0265A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="5910" windowWidth="7500" windowHeight="7755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="402">
   <si>
     <t>班级</t>
   </si>
@@ -1163,6 +1163,102 @@
   </si>
   <si>
     <t xml:space="preserve">家长您好，和您反馈一下何宁的学习情况：孩子早上可能来晚了，听课时长只有98.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我或者赵老师。~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下李嘉劲的学习情况：孩子今天表现很好，一共听了101.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下徐鹏博的学习情况：孩子今天表现很好，一共听了116.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下范子蕾的学习情况：孩子今天表现很好，一共听了122.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下王睿的学习情况：孩子今天表现很好，一共听了125.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下魏苗的学习情况：孩子今天表现很好，一共听了127.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下段玉麟的学习情况：孩子今天表现很好，一共听了127.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下华海洋的学习情况：孩子今天表现很好，一共听了128.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下冯梦瑶的学习情况：孩子今天表现很好，一共听了129.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下孔思佳的学习情况：孩子今天表现很好，一共听了129.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下刘宇航的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下石津铭的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业已经改完了，掌握的很不错，分数是100分，继续保持~ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下邵麟婷的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业已经改完了，掌握的很不错，分数是67分，继续保持~ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下郑起桢的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业已经改完了，掌握的很不错，分数是100分，继续保持~ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下陈九洲的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下李卓蔓的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下韦怀志的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下郭佳瑞的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下江鸿的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下徐从的学习情况：孩子早上可能来晚了，听课时长只有130.0分钟，不过目前孩子已经听了回放，下次记得按时上课~~然后孩子的作业已经改完了，掌握的很不错，分数是100分，继续保持~ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下查格西的学习情况：孩子早上可能来晚了，听课时长只有49.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我或者赵老师。~然后孩子的作业已经改完了，但是没有及格，今天讲的公式是高一的基石,一定要巩固好。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下杜懿轩的学习情况：孩子早上可能来晚了，听课时长只有77.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我或者赵老师。~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下李浚仪的学习情况：孩子早上可能来晚了，听课时长只有97.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我或者赵老师。~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下赵泽帆的学习情况：孩子早上可能来晚了，听课时长只有97.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我或者赵老师。~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家长您好，和您反馈一下何宁的学习情况：孩子早上可能来晚了，听课时长只有98.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我或者赵老师。~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -16146,8 +16242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71C6B71-F261-44B8-AAFE-17C8CEB6929A}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B58"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16477,9 +16573,8 @@
         <f>Sheet1!G:G</f>
         <v>李嘉劲</v>
       </c>
-      <c r="B33" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下李嘉劲的学习情况：孩子今天表现很好，一共听了101.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B33" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -16487,9 +16582,8 @@
         <f>Sheet1!G:G</f>
         <v>徐鹏博</v>
       </c>
-      <c r="B34" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下徐鹏博的学习情况：孩子今天表现很好，一共听了116.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B34" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -16497,9 +16591,8 @@
         <f>Sheet1!G:G</f>
         <v>范子蕾</v>
       </c>
-      <c r="B35" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下范子蕾的学习情况：孩子今天表现很好，一共听了122.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B35" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -16507,9 +16600,8 @@
         <f>Sheet1!G:G</f>
         <v>王睿</v>
       </c>
-      <c r="B36" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下王睿的学习情况：孩子今天表现很好，一共听了125.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B36" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -16517,9 +16609,8 @@
         <f>Sheet1!G:G</f>
         <v>魏苗</v>
       </c>
-      <c r="B37" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下魏苗的学习情况：孩子今天表现很好，一共听了127.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B37" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -16527,9 +16618,8 @@
         <f>Sheet1!G:G</f>
         <v>段玉麟</v>
       </c>
-      <c r="B38" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下段玉麟的学习情况：孩子今天表现很好，一共听了127.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B38" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -16537,9 +16627,8 @@
         <f>Sheet1!G:G</f>
         <v>华海洋</v>
       </c>
-      <c r="B39" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下华海洋的学习情况：孩子今天表现很好，一共听了128.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B39" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -16547,9 +16636,8 @@
         <f>Sheet1!G:G</f>
         <v>冯梦瑶</v>
       </c>
-      <c r="B40" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下冯梦瑶的学习情况：孩子今天表现很好，一共听了129.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B40" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -16557,9 +16645,8 @@
         <f>Sheet1!G:G</f>
         <v>孔思佳</v>
       </c>
-      <c r="B41" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下孔思佳的学习情况：孩子今天表现很好，一共听了129.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B41" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -16567,9 +16654,8 @@
         <f>Sheet1!G:G</f>
         <v>刘宇航</v>
       </c>
-      <c r="B42" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下刘宇航的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B42" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -16577,9 +16663,8 @@
         <f>Sheet1!G:G</f>
         <v>石津铭</v>
       </c>
-      <c r="B43" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下石津铭的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业已经改完了，掌握的很不错，分数是100分，继续保持~ </v>
+      <c r="B43" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -16587,9 +16672,8 @@
         <f>Sheet1!G:G</f>
         <v>邵麟婷</v>
       </c>
-      <c r="B44" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下邵麟婷的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业已经改完了，掌握的很不错，分数是67分，继续保持~ </v>
+      <c r="B44" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -16597,9 +16681,8 @@
         <f>Sheet1!G:G</f>
         <v>郑起桢</v>
       </c>
-      <c r="B45" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下郑起桢的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业已经改完了，掌握的很不错，分数是100分，继续保持~ </v>
+      <c r="B45" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -16607,9 +16690,8 @@
         <f>Sheet1!G:G</f>
         <v>陈九洲</v>
       </c>
-      <c r="B46" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下陈九洲的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B46" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -16617,9 +16699,8 @@
         <f>Sheet1!G:G</f>
         <v>李卓蔓</v>
       </c>
-      <c r="B47" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下李卓蔓的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B47" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -16627,9 +16708,8 @@
         <f>Sheet1!G:G</f>
         <v>韦怀志</v>
       </c>
-      <c r="B48" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下韦怀志的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B48" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -16637,9 +16717,8 @@
         <f>Sheet1!G:G</f>
         <v>郭佳瑞</v>
       </c>
-      <c r="B49" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下郭佳瑞的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B49" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -16647,9 +16726,8 @@
         <f>Sheet1!G:G</f>
         <v>崔思琪</v>
       </c>
-      <c r="B50" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下崔思琪的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B50" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -16657,9 +16735,8 @@
         <f>Sheet1!G:G</f>
         <v>江鸿</v>
       </c>
-      <c r="B51" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下江鸿的学习情况：孩子今天表现很好，一共听了130.0分钟的直播课程，继续保持~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B51" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -16667,9 +16744,8 @@
         <f>Sheet1!G:G</f>
         <v>徐从</v>
       </c>
-      <c r="B52" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下徐从的学习情况：孩子早上可能来晚了，听课时长只有130.0分钟，不过目前孩子已经听了回放，下次记得按时上课~~然后孩子的作业已经改完了，掌握的很不错，分数是100分，继续保持~ </v>
+      <c r="B52" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -16677,9 +16753,8 @@
         <f>Sheet1!G:G</f>
         <v>况瑞</v>
       </c>
-      <c r="B53" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下况瑞的学习情况：孩子早上可能来晚了，听课时长只有2.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我或者赵老师。~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B53" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -16687,9 +16762,8 @@
         <f>Sheet1!G:G</f>
         <v>查格西</v>
       </c>
-      <c r="B54" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下查格西的学习情况：孩子早上可能来晚了，听课时长只有49.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我或者赵老师。~然后孩子的作业已经改完了，但是没有及格，今天讲的公式是高一的基石,一定要巩固好。 </v>
+      <c r="B54" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -16697,9 +16771,8 @@
         <f>Sheet1!G:G</f>
         <v>杜懿轩</v>
       </c>
-      <c r="B55" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下杜懿轩的学习情况：孩子早上可能来晚了，听课时长只有77.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我或者赵老师。~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B55" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -16707,9 +16780,8 @@
         <f>Sheet1!G:G</f>
         <v>李浚仪</v>
       </c>
-      <c r="B56" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下李浚仪的学习情况：孩子早上可能来晚了，听课时长只有97.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我或者赵老师。~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B56" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -16717,9 +16789,8 @@
         <f>Sheet1!G:G</f>
         <v>赵泽帆</v>
       </c>
-      <c r="B57" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下赵泽帆的学习情况：孩子早上可能来晚了，听课时长只有97.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我或者赵老师。~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B57" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -16727,9 +16798,8 @@
         <f>Sheet1!G:G</f>
         <v>何宁</v>
       </c>
-      <c r="B58" t="str">
-        <f>Sheet1!CQ:CQ</f>
-        <v xml:space="preserve">家长您好，和您反馈一下何宁的学习情况：孩子早上可能来晚了，听课时长只有98.0分钟，麻烦家长督促孩子观看回放，不懂的可以问我或者赵老师。~然后孩子的作业还没有提交，记得提醒孩子完成，我会帮他批改 </v>
+      <c r="B58" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
